--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF84F273-3BA5-7A41-AC5C-1AE85D999E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201905A6-0A1A-F340-96F4-CB19EFCA38DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="13660" windowHeight="14820" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="-36600" yWindow="8880" windowWidth="13660" windowHeight="14820" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -1,107 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CS295N-CourseMaterials\Labs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201905A6-0A1A-F340-96F4-CB19EFCA38DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB1D89-C6F6-4835-8EF2-527BB188D9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36600" yWindow="8880" windowWidth="13660" windowHeight="14820" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="43428" yWindow="-4260" windowWidth="10284" windowHeight="16608" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rubric" sheetId="1" r:id="rId1"/>
+    <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>Lab 2, Group A - Community Web Site</t>
   </si>
   <si>
-    <t>-----------------------------------</t>
-  </si>
-  <si>
     <t>Excellent work!</t>
   </si>
   <si>
-    <t>Good design and implementation.</t>
-  </si>
-  <si>
-    <t>Domain Model:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  UML class diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  C# implementation </t>
-  </si>
-  <si>
-    <t>Contact Page(s) to Send Messages:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  View with form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Controller methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Controller method(s)</t>
-  </si>
-  <si>
-    <t>Coding best practices</t>
-  </si>
-  <si>
-    <t>Completed code review form 2/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total: </t>
   </si>
   <si>
     <t>Lab 2, Group B - Fan Web Site</t>
   </si>
   <si>
-    <t>Story Page(s) to Enter Stories:</t>
-  </si>
-  <si>
-    <t>Story Page(s) to View Stories:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  View(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Possible</t>
   </si>
   <si>
     <t>Actual</t>
   </si>
   <si>
-    <t>Contact Page(s) to view messages</t>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Exercise completed</t>
+  </si>
+  <si>
+    <t>Part 2: Skeletal site</t>
+  </si>
+  <si>
+    <t>Part 1: Ex 1-1, Guitar shop</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Heading and description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to History and Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  History page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Contact page</t>
+  </si>
+  <si>
+    <t>Info page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to Locations and People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Locations page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  People page</t>
+  </si>
+  <si>
+    <t>Your choice page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to History and Stories</t>
+  </si>
+  <si>
+    <t>Sources page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to Books and Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Media page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Books page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Stories page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Overview page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Forum page</t>
+  </si>
+  <si>
+    <t>References page</t>
+  </si>
+  <si>
+    <t>Lab 2, Group C - Info Web Site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,9 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,29 +504,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,10 +537,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -490,65 +545,61 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -557,154 +608,170 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <f>SUM(B6:B15)</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <f>SUM(C6:C15)</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <f>SUM(B5:B18)</f>
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(C5:C18)</f>
+        <v>40</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -713,10 +780,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -724,72 +789,53 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
         <v>10</v>
@@ -798,110 +844,82 @@
         <v>10</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -910,64 +928,73 @@
         <v>2</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B37" s="1">
-        <f>SUM(B26:B35)</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
-        <f>SUM(C26:C35)</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <f>SUM(B26:B39)</f>
+        <v>40</v>
+      </c>
+      <c r="C40" s="2">
+        <f>SUM(C26:C39)</f>
+        <v>40</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -976,7 +1003,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -985,7 +1012,900 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2">
+        <f>SUM(B47:B60)</f>
+        <v>40</v>
+      </c>
+      <c r="C61" s="2">
+        <f>SUM(C47:C60)</f>
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <f>SUM(B5:B18)</f>
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(C5:C18)</f>
+        <v>50</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <f>SUM(B26:B39)</f>
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
+        <f>SUM(C26:C39)</f>
+        <v>50</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2">
+        <f>SUM(B47:B60)</f>
+        <v>50</v>
+      </c>
+      <c r="C61" s="2">
+        <f>SUM(C47:C60)</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CS295N-CourseMaterials\Labs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB1D89-C6F6-4835-8EF2-527BB188D9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DEA82-6017-4E75-A30A-BAF41676136F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43428" yWindow="-4260" windowWidth="10284" windowHeight="16608" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="39012" yWindow="-3888" windowWidth="14100" windowHeight="15876" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
   <si>
     <t>Lab 2, Group A - Community Web Site</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Lab 2, Group C - Info Web Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to Overview and Forum</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -613,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -628,10 +631,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -643,10 +646,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -658,10 +661,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -684,10 +687,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -699,10 +702,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -714,10 +717,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -729,10 +732,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -744,10 +747,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -760,11 +763,11 @@
       </c>
       <c r="B19" s="2">
         <f>SUM(B5:B18)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2">
         <f>SUM(C5:C18)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -866,10 +869,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -878,10 +881,10 @@
         <v>20</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -890,10 +893,10 @@
         <v>13</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -902,10 +905,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -922,10 +925,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -934,10 +937,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1"/>
     </row>
@@ -946,10 +949,10 @@
         <v>24</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -958,10 +961,10 @@
         <v>23</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1"/>
     </row>
@@ -970,10 +973,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -983,11 +986,11 @@
       </c>
       <c r="B40" s="2">
         <f>SUM(B26:B39)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2">
         <f>SUM(C26:C39)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1086,21 +1089,21 @@
         <v>11</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1108,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="B53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1119,10 +1122,10 @@
         <v>27</v>
       </c>
       <c r="B54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1137,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1148,10 +1151,10 @@
         <v>22</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,10 +1162,10 @@
         <v>24</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1170,10 +1173,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1181,10 +1184,10 @@
         <v>19</v>
       </c>
       <c r="B60" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,11 +1196,11 @@
       </c>
       <c r="B61" s="2">
         <f>SUM(B47:B60)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C61" s="2">
         <f>SUM(C47:C60)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1210,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C60"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1798,7 +1801,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>5</v>

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Repos\CS295N-CourseMaterials\Labs\Lab02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DEA82-6017-4E75-A30A-BAF41676136F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A59B85-2783-C542-801E-97AB8389EFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39012" yWindow="-3888" windowWidth="14100" windowHeight="15876" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="11500" yWindow="500" windowWidth="14100" windowHeight="14660" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>Lab 2, Group A - Community Web Site</t>
   </si>
@@ -128,13 +119,19 @@
   </si>
   <si>
     <t xml:space="preserve">    Links to Overview and Forum</t>
+  </si>
+  <si>
+    <t>Site running on Azure</t>
+  </si>
+  <si>
+    <t>Rubric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +163,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,12 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,18 +512,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,43 +532,37 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -572,24 +571,20 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -598,9 +593,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -609,69 +603,56 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -680,526 +661,443 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <f>SUM(B5:B18)</f>
-        <v>50</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM(C5:C18)</f>
-        <v>50</v>
-      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <f>SUM(B5:B19)</f>
+        <v>50</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>10</v>
       </c>
-      <c r="C27" s="1">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="1">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="1">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1">
         <v>8</v>
       </c>
-      <c r="C39" s="1">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2">
-        <f>SUM(B26:B39)</f>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <f>SUM(B27:B41)</f>
         <v>50</v>
       </c>
-      <c r="C40" s="2">
-        <f>SUM(C26:C39)</f>
-        <v>50</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c r="C48" s="1">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="5">
         <v>8</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="1">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="1">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="1">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="1">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="1">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2">
-        <f>SUM(B47:B60)</f>
-        <v>50</v>
-      </c>
-      <c r="C61" s="2">
-        <f>SUM(C47:C60)</f>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2">
+        <f>SUM(B49:B63)</f>
         <v>50</v>
       </c>
     </row>
@@ -1211,18 +1109,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C61"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1131,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1142,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1252,7 +1150,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1165,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1176,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1191,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1202,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1315,37 +1213,37 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1258,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1273,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1386,37 +1284,37 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1329,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,48 +1344,54 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <f>SUM(B5:B18)</f>
-        <v>50</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM(C5:C18)</f>
-        <v>50</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <f>SUM(B5:B19)</f>
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(C5:C19)</f>
+        <v>50</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1496,244 +1400,246 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>10</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>10</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="1">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="1">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="1">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2">
-        <f>SUM(B26:B39)</f>
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <f>SUM(C26:C39)</f>
-        <v>50</v>
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <f>SUM(B27:B41)</f>
+        <v>50</v>
+      </c>
+      <c r="C42" s="2">
+        <f>SUM(C27:C41)</f>
+        <v>50</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1741,169 +1647,194 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="1">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="1">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="1">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="5">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B56" s="5">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="1">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="5">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="1">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="1">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B60" s="5">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="1">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B62" s="5">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="5">
         <v>8</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C63" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2">
-        <f>SUM(B47:B60)</f>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2">
+        <f>SUM(B49:B63)</f>
         <v>50</v>
       </c>
-      <c r="C61" s="2">
-        <f>SUM(C47:C60)</f>
+      <c r="C64" s="2">
+        <f>SUM(C49:C63)</f>
         <v>50</v>
       </c>
     </row>

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A59B85-2783-C542-801E-97AB8389EFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C0155B-0FCB-BB47-BC91-CDFFF0F9DDC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="500" windowWidth="14100" windowHeight="14660" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="11400" yWindow="500" windowWidth="14100" windowHeight="14660" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
   <si>
     <t>Lab 2, Group A - Community Web Site</t>
   </si>
@@ -125,6 +125,45 @@
   </si>
   <si>
     <t>Rubric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  History sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Stories sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Contact sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Heading and description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Links to 2 other top-level pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Links to Locations and People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Locations sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  People sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Links to sub-pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Books (aka Print) sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Media (aka Outline) sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Books (aka FanSites) sub-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Media (aka News) sub-page</t>
   </si>
 </sst>
 </file>
@@ -514,13 +553,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -606,7 +645,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -618,7 +657,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -630,7 +669,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -642,7 +681,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -664,7 +703,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -676,7 +715,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -688,7 +727,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -700,7 +739,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -711,7 +750,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
@@ -825,7 +864,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -834,7 +873,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
@@ -843,7 +882,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>4</v>
@@ -852,7 +891,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -861,14 +900,14 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -877,7 +916,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -886,7 +925,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
@@ -895,7 +934,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -903,7 +942,7 @@
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="1">
@@ -1008,7 +1047,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B53" s="5">
         <v>2</v>
@@ -1016,7 +1055,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B54" s="5">
         <v>3</v>
@@ -1046,7 +1085,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B58" s="5">
         <v>2</v>
@@ -1054,7 +1093,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B59" s="5">
         <v>3</v>
@@ -1062,7 +1101,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B60" s="5">
         <v>4</v>
@@ -1070,14 +1109,14 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B61" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="5">

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C0155B-0FCB-BB47-BC91-CDFFF0F9DDC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F239CD6D-34C1-4334-90F4-111D6AC433F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="500" windowWidth="14100" windowHeight="14660" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="20568" yWindow="624" windowWidth="10080" windowHeight="15300" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -553,16 +564,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,7 +583,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -582,14 +593,14 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -601,7 +612,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -611,7 +622,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,7 +634,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -633,7 +644,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -643,7 +654,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -655,7 +666,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -667,7 +678,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -679,7 +690,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -691,7 +702,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -701,7 +712,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -713,7 +724,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -725,7 +736,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -737,7 +748,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -749,7 +760,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -761,7 +772,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -773,7 +784,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -786,7 +797,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -794,7 +805,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -802,7 +813,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,18 +823,18 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -832,14 +843,14 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,21 +859,21 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -871,7 +882,7 @@
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -880,7 +891,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -889,7 +900,7 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -898,14 +909,14 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -914,7 +925,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -923,7 +934,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -932,7 +943,7 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -941,7 +952,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -950,7 +961,7 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -959,7 +970,7 @@
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -972,7 +983,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -980,7 +991,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -988,7 +999,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
@@ -998,7 +1009,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -1008,10 +1019,10 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1019,13 +1030,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,19 +1044,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
@@ -1053,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -1077,13 +1088,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>36</v>
       </c>
@@ -1091,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -1099,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
@@ -1107,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -1150,16 +1161,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1181,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1192,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1189,7 +1200,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1215,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +1226,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1225,12 +1236,11 @@
       <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1251,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1262,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1277,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1292,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1297,7 +1307,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1322,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1333,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +1348,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +1363,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1368,7 +1378,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1393,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1408,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1413,7 +1423,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1440,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1439,7 +1449,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1448,7 +1458,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1466,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1464,12 +1474,12 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1491,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1499,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1501,7 +1511,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1519,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1527,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1539,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,7 +1551,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1553,7 +1563,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1565,7 +1575,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1583,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1595,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1597,7 +1607,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1619,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1631,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1646,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1651,7 +1661,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1678,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1677,7 +1687,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1686,25 +1696,25 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1715,14 +1725,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1732,22 +1742,23 @@
       <c r="C50" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -1769,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,14 +1802,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -1853,7 +1864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -1864,7 +1875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293EC1ED-8A4D-BC4D-865B-4BC4A021493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C81D7-378A-422E-9A6A-EEA3C799D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="620" windowWidth="16480" windowHeight="20780" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="31692" yWindow="4188" windowWidth="19152" windowHeight="12360" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Lab 2, Group A - Community Web Site</t>
   </si>
@@ -75,27 +75,9 @@
     <t xml:space="preserve">    Heading and description</t>
   </si>
   <si>
-    <t xml:space="preserve">    Links to History and Contact</t>
-  </si>
-  <si>
     <t xml:space="preserve">  History page</t>
   </si>
   <si>
-    <t xml:space="preserve">  Contact page</t>
-  </si>
-  <si>
-    <t>Info page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Links to Locations and People</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Locations page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  People page</t>
-  </si>
-  <si>
     <t>Your choice page</t>
   </si>
   <si>
@@ -105,33 +87,15 @@
     <t>Sources page</t>
   </si>
   <si>
-    <t xml:space="preserve">    Links to Books and Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Media page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Books page</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Stories page</t>
   </si>
   <si>
     <t xml:space="preserve">  Overview page</t>
   </si>
   <si>
-    <t xml:space="preserve">  Forum page</t>
-  </si>
-  <si>
-    <t>References page</t>
-  </si>
-  <si>
     <t>Lab 2, Group C - Info Web Site</t>
   </si>
   <si>
-    <t xml:space="preserve">    Links to Overview and Forum</t>
-  </si>
-  <si>
     <t>Site running on Azure</t>
   </si>
   <si>
@@ -151,6 +115,60 @@
   </si>
   <si>
     <t xml:space="preserve">  Links to 2 sub-pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to Fan Sites and News</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Fan Sites page</t>
+  </si>
+  <si>
+    <t>News page</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to Overview and References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  References page</t>
+  </si>
+  <si>
+    <t>Blog page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Top posts page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  About the author page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to History and Messages</t>
+  </si>
+  <si>
+    <t>About page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to Links and FAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Links page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FAQ page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Messages page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Links to top posts and about author</t>
+  </si>
+  <si>
+    <t>Points Possible</t>
   </si>
 </sst>
 </file>
@@ -217,12 +235,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,138 +560,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="7.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
       <c r="B19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,92 +701,92 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
@@ -776,548 +798,615 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="4" max="4" width="1.296875" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <f>SUM(B6:B20)</f>
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM(C6:C20)</f>
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21" si="0">SUM(D6:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <f>SUM(B29:B43)</f>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <f>SUM(C29:C43)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <f>SUM(B5:B19)</f>
-        <v>50</v>
-      </c>
-      <c r="C20" s="1">
-        <f>SUM(C5:C19)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B66">
         <v>7</v>
       </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1">
-        <f>SUM(B27:B41)</f>
-        <v>50</v>
-      </c>
-      <c r="C42" s="1">
-        <f>SUM(C27:C41)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C66">
         <v>7</v>
       </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="4">
-        <v>2</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="4">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="4">
-        <v>4</v>
-      </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="4">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="4">
-        <v>2</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="4">
-        <v>3</v>
-      </c>
-      <c r="C59" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4</v>
-      </c>
-      <c r="C60" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="4">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="4">
-        <v>6</v>
-      </c>
-      <c r="C62" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="4">
-        <v>8</v>
-      </c>
-      <c r="C63" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="1">
-        <f>SUM(B49:B63)</f>
-        <v>50</v>
-      </c>
-      <c r="C64" s="1">
-        <f>SUM(C49:C63)</f>
-        <v>50</v>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <f>SUM(B52:B66)</f>
+        <v>40</v>
+      </c>
+      <c r="C67" s="1">
+        <f>SUM(C52:C66)</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="A48:E49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C81D7-378A-422E-9A6A-EEA3C799D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B929F7-2C04-4E7A-B7C5-90E1BE450570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31692" yWindow="4188" windowWidth="19152" windowHeight="12360" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="16056" yWindow="2652" windowWidth="14652" windowHeight="13548" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -235,14 +235,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,13 +806,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
     <col min="4" max="4" width="1.296875" customWidth="1"/>
     <col min="5" max="5" width="17.09765625" customWidth="1"/>
   </cols>
@@ -818,20 +826,20 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -856,6 +864,7 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -867,16 +876,19 @@
       <c r="C7">
         <v>10</v>
       </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -888,6 +900,7 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -899,6 +912,7 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -910,6 +924,7 @@
       <c r="C12">
         <v>3</v>
       </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -921,11 +936,13 @@
       <c r="C13">
         <v>3</v>
       </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -937,6 +954,7 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -948,6 +966,7 @@
       <c r="C16">
         <v>2</v>
       </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -959,6 +978,7 @@
       <c r="C17">
         <v>3</v>
       </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -970,6 +990,7 @@
       <c r="C18">
         <v>3</v>
       </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -981,6 +1002,7 @@
       <c r="C19">
         <v>5</v>
       </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -992,6 +1014,7 @@
       <c r="C20">
         <v>7</v>
       </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1009,7 +1032,7 @@
         <f t="shared" ref="D21" si="0">SUM(D6:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1018,20 +1041,20 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1056,6 +1079,7 @@
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1067,16 +1091,19 @@
       <c r="C30">
         <v>10</v>
       </c>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1088,6 +1115,7 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1099,6 +1127,7 @@
       <c r="C34">
         <v>2</v>
       </c>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1110,6 +1139,7 @@
       <c r="C35">
         <v>3</v>
       </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1121,11 +1151,13 @@
       <c r="C36">
         <v>3</v>
       </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1137,6 +1169,7 @@
       <c r="C38">
         <v>1</v>
       </c>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1148,6 +1181,7 @@
       <c r="C39">
         <v>2</v>
       </c>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1159,6 +1193,7 @@
       <c r="C40">
         <v>3</v>
       </c>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1170,6 +1205,7 @@
       <c r="C41">
         <v>3</v>
       </c>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -1181,6 +1217,7 @@
       <c r="C42">
         <v>5</v>
       </c>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1192,6 +1229,7 @@
       <c r="C43">
         <v>7</v>
       </c>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -1205,6 +1243,7 @@
         <f>SUM(C29:C43)</f>
         <v>40</v>
       </c>
+      <c r="E44" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -1213,20 +1252,20 @@
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -1251,6 +1290,7 @@
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -1262,16 +1302,19 @@
       <c r="C53">
         <v>10</v>
       </c>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -1283,6 +1326,7 @@
       <c r="C56">
         <v>1</v>
       </c>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1294,6 +1338,7 @@
       <c r="C57">
         <v>2</v>
       </c>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -1305,6 +1350,7 @@
       <c r="C58">
         <v>3</v>
       </c>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -1316,11 +1362,13 @@
       <c r="C59">
         <v>3</v>
       </c>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -1332,6 +1380,7 @@
       <c r="C61">
         <v>1</v>
       </c>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -1343,6 +1392,7 @@
       <c r="C62">
         <v>2</v>
       </c>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -1354,6 +1404,7 @@
       <c r="C63">
         <v>3</v>
       </c>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -1365,8 +1416,9 @@
       <c r="C64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -1376,8 +1428,9 @@
       <c r="C65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -1387,8 +1440,9 @@
       <c r="C66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -1400,6 +1454,7 @@
         <f>SUM(C52:C66)</f>
         <v>40</v>
       </c>
+      <c r="E67" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-Repos/CS295N-CourseMaterials/Labs/Lab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C49881-6746-D145-9153-152B37B969F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839A998-7303-6E45-B01F-DC92FDFEF031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="540" windowWidth="14660" windowHeight="15460" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,6 +203,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +786,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,10 +799,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -816,9 +824,13 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1203,11 +1215,13 @@
       <c r="E72" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A30:E31"/>
     <mergeCell ref="A53:E54"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Labs/Lab02/Lab2Rubric_CS295N.xlsx
+++ b/Labs/Lab02/Lab2Rubric_CS295N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-Repos/CS295N-CourseMaterials/Labs/Lab02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839A998-7303-6E45-B01F-DC92FDFEF031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CF8A1-5D66-6A4F-9D29-3B1FC08ACEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="540" windowWidth="14660" windowHeight="15460" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
-  <si>
-    <t>Excellent work!</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -121,6 +118,33 @@
   </si>
   <si>
     <t>Lab 2, Skeletal Web Site</t>
+  </si>
+  <si>
+    <t>Good job on tutorial 2</t>
+  </si>
+  <si>
+    <t>Good job on tutorial 3</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes, Sources</t>
+  </si>
+  <si>
+    <t>Yes, SiteMembers</t>
+  </si>
+  <si>
+    <t>Everything works, even though there are html syntax errors. The Site Members page is interesting--but having a separate controller method for each member is not an approach that is going to work as you add members.</t>
+  </si>
+  <si>
+    <t>Very good work!</t>
+  </si>
+  <si>
+    <t>About, Sources or Blog</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -536,26 +560,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -563,7 +587,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -571,17 +595,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -589,7 +613,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -597,12 +621,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -610,7 +634,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -618,7 +642,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -626,7 +650,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -634,12 +658,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -647,7 +671,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -655,7 +679,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -663,7 +687,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -671,7 +695,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -679,7 +703,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1">
         <f>SUM(B4:B22)</f>
@@ -783,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,66 +819,69 @@
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -862,11 +889,16 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -874,26 +906,34 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -901,11 +941,16 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -913,17 +958,23 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -931,11 +982,16 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -943,11 +999,16 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -955,11 +1016,16 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -967,17 +1033,23 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -985,11 +1057,16 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -997,11 +1074,16 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1009,11 +1091,16 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1021,11 +1108,16 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -1033,14 +1125,19 @@
       <c r="C24">
         <v>7</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1">
         <f>SUM(B6:B24)</f>
@@ -1056,18 +1153,18 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
